--- a/PowerWashSimulator/data.xlsx
+++ b/PowerWashSimulator/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\PowerWashSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5889BF2E-C5E2-47D7-AC37-6085DA4E8041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57409400-5111-454B-BAD5-4115301FB120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8895" yWindow="1200" windowWidth="18675" windowHeight="13275" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
@@ -991,7 +991,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PowerWashSimulator/data.xlsx
+++ b/PowerWashSimulator/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\PowerWashSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57409400-5111-454B-BAD5-4115301FB120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F378D-E1F9-4145-AB30-C2E15CA118D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8895" yWindow="1200" windowWidth="18675" windowHeight="13275" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Warhammer 40,000 DLC</t>
   </si>
   <si>
-    <t>Alice’s Adventures DLC</t>
-  </si>
-  <si>
     <t>Shrek DLC</t>
   </si>
   <si>
@@ -597,6 +594,9 @@
   </si>
   <si>
     <t>General Achievements</t>
+  </si>
+  <si>
+    <t>Alice's Adventures DLC</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1001,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>0</v>
@@ -1075,55 +1075,55 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
         <v>108</v>
       </c>
-      <c r="J2" t="s">
-        <v>109</v>
-      </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" t="s">
         <v>128</v>
       </c>
-      <c r="N2" t="s">
-        <v>129</v>
-      </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R2" t="s">
         <v>148</v>
       </c>
-      <c r="R2" t="s">
-        <v>149</v>
-      </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="U2" t="s">
+        <v>165</v>
+      </c>
+      <c r="V2" t="s">
         <v>166</v>
-      </c>
-      <c r="V2" t="s">
-        <v>167</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -1131,55 +1131,55 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
         <v>90</v>
       </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" t="s">
         <v>110</v>
       </c>
-      <c r="J3" t="s">
-        <v>111</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" t="s">
         <v>130</v>
       </c>
-      <c r="N3" t="s">
-        <v>131</v>
-      </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
+        <v>149</v>
+      </c>
+      <c r="R3" t="s">
         <v>150</v>
       </c>
-      <c r="R3" t="s">
-        <v>151</v>
-      </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="U3" t="s">
+        <v>167</v>
+      </c>
+      <c r="V3" t="s">
         <v>168</v>
-      </c>
-      <c r="V3" t="s">
-        <v>169</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -1187,55 +1187,55 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
         <v>92</v>
       </c>
-      <c r="F4" t="s">
-        <v>93</v>
-      </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
         <v>112</v>
       </c>
-      <c r="J4" t="s">
-        <v>113</v>
-      </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" t="s">
         <v>132</v>
       </c>
-      <c r="N4" t="s">
-        <v>133</v>
-      </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="Q4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" t="s">
         <v>152</v>
       </c>
-      <c r="R4" t="s">
-        <v>153</v>
-      </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="U4" t="s">
+        <v>169</v>
+      </c>
+      <c r="V4" t="s">
         <v>170</v>
-      </c>
-      <c r="V4" t="s">
-        <v>171</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1243,55 +1243,55 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
         <v>94</v>
       </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" t="s">
         <v>114</v>
       </c>
-      <c r="J5" t="s">
-        <v>115</v>
-      </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" t="s">
         <v>134</v>
       </c>
-      <c r="N5" t="s">
-        <v>135</v>
-      </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
+        <v>153</v>
+      </c>
+      <c r="R5" t="s">
         <v>154</v>
       </c>
-      <c r="R5" t="s">
-        <v>155</v>
-      </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="U5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V5" t="s">
         <v>172</v>
-      </c>
-      <c r="V5" t="s">
-        <v>173</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1299,55 +1299,55 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
         <v>96</v>
       </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
         <v>116</v>
       </c>
-      <c r="J6" t="s">
-        <v>117</v>
-      </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" t="s">
         <v>136</v>
       </c>
-      <c r="N6" t="s">
-        <v>137</v>
-      </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="Q6" t="s">
+        <v>155</v>
+      </c>
+      <c r="R6" t="s">
         <v>156</v>
       </c>
-      <c r="R6" t="s">
-        <v>157</v>
-      </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="U6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V6" t="s">
         <v>174</v>
-      </c>
-      <c r="V6" t="s">
-        <v>175</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1355,55 +1355,55 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
         <v>98</v>
       </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" t="s">
         <v>118</v>
       </c>
-      <c r="J7" t="s">
-        <v>119</v>
-      </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" t="s">
         <v>138</v>
       </c>
-      <c r="N7" t="s">
-        <v>139</v>
-      </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" t="s">
         <v>158</v>
       </c>
-      <c r="R7" t="s">
-        <v>159</v>
-      </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="U7" t="s">
+        <v>175</v>
+      </c>
+      <c r="V7" t="s">
         <v>176</v>
-      </c>
-      <c r="V7" t="s">
-        <v>177</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1411,55 +1411,55 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
         <v>100</v>
       </c>
-      <c r="F8" t="s">
-        <v>101</v>
-      </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" t="s">
         <v>120</v>
       </c>
-      <c r="J8" t="s">
-        <v>121</v>
-      </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8" t="s">
         <v>140</v>
       </c>
-      <c r="N8" t="s">
-        <v>141</v>
-      </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
+        <v>159</v>
+      </c>
+      <c r="R8" t="s">
         <v>160</v>
       </c>
-      <c r="R8" t="s">
-        <v>161</v>
-      </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="U8" t="s">
+        <v>177</v>
+      </c>
+      <c r="V8" t="s">
         <v>178</v>
-      </c>
-      <c r="V8" t="s">
-        <v>179</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1467,55 +1467,55 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
         <v>102</v>
       </c>
-      <c r="F9" t="s">
-        <v>103</v>
-      </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
         <v>122</v>
       </c>
-      <c r="J9" t="s">
-        <v>123</v>
-      </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9" t="s">
         <v>142</v>
       </c>
-      <c r="N9" t="s">
-        <v>143</v>
-      </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="Q9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" t="s">
         <v>162</v>
       </c>
-      <c r="R9" t="s">
-        <v>163</v>
-      </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="U9" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" t="s">
         <v>180</v>
-      </c>
-      <c r="V9" t="s">
-        <v>181</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1523,55 +1523,55 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
         <v>104</v>
       </c>
-      <c r="F10" t="s">
-        <v>105</v>
-      </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
         <v>124</v>
       </c>
-      <c r="J10" t="s">
-        <v>125</v>
-      </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10" t="s">
         <v>144</v>
       </c>
-      <c r="N10" t="s">
-        <v>145</v>
-      </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="Q10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R10" t="s">
         <v>164</v>
       </c>
-      <c r="R10" t="s">
-        <v>165</v>
-      </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="U10" t="s">
+        <v>181</v>
+      </c>
+      <c r="V10" t="s">
         <v>182</v>
-      </c>
-      <c r="V10" t="s">
-        <v>183</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -1579,38 +1579,38 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
         <v>126</v>
       </c>
-      <c r="J11" t="s">
-        <v>127</v>
-      </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s">
         <v>146</v>
       </c>
-      <c r="N11" t="s">
-        <v>147</v>
-      </c>
       <c r="O11">
         <v>1</v>
       </c>
@@ -1618,10 +1618,10 @@
         <v>1</v>
       </c>
       <c r="U11" t="s">
+        <v>183</v>
+      </c>
+      <c r="V11" t="s">
         <v>184</v>
-      </c>
-      <c r="V11" t="s">
-        <v>185</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
         <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
         <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
         <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
         <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
         <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
         <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
         <v>78</v>
-      </c>
-      <c r="B37" t="s">
-        <v>79</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
         <v>80</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
         <v>82</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
         <v>84</v>
-      </c>
-      <c r="B40" t="s">
-        <v>85</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
         <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>87</v>
       </c>
       <c r="C41">
         <v>1</v>

--- a/PowerWashSimulator/data.xlsx
+++ b/PowerWashSimulator/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\PowerWashSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F378D-E1F9-4145-AB30-C2E15CA118D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D79D20-27A6-4F5B-AADB-73122FBC2BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
@@ -991,7 +991,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PowerWashSimulator/data.xlsx
+++ b/PowerWashSimulator/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\PowerWashSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D79D20-27A6-4F5B-AADB-73122FBC2BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2835A7-1473-40F9-AF83-867057041CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
@@ -628,12 +628,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -648,12 +654,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB57F3-4A37-4B35-911F-04B3CFC91EFD}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,13 +1473,16 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
@@ -1661,13 +1671,16 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
     </row>
@@ -1858,8 +1871,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B33" t="s">
@@ -1868,9 +1881,12 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B34" t="s">
@@ -1879,8 +1895,11 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1891,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1902,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -1913,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1924,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -1935,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1946,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>

--- a/PowerWashSimulator/data.xlsx
+++ b/PowerWashSimulator/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\PowerWashSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2835A7-1473-40F9-AF83-867057041CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20646B01-5F54-47E2-86D0-1E71A166C71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="675" yWindow="390" windowWidth="18675" windowHeight="13275" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB57F3-4A37-4B35-911F-04B3CFC91EFD}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,13 +1137,16 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -1660,13 +1663,16 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
     </row>
@@ -1685,7 +1691,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
@@ -1694,9 +1700,12 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B17" t="s">
@@ -1705,9 +1714,12 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B18" t="s">
@@ -1716,9 +1728,12 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B19" t="s">
@@ -1727,9 +1742,12 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
@@ -1738,8 +1756,11 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1750,8 +1771,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B22" t="s">
@@ -1760,8 +1781,11 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1772,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1783,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1794,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1805,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1816,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1827,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1838,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1849,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1860,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1900,13 +1924,16 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B35" t="s">
         <v>74</v>
       </c>
       <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>1</v>
       </c>
     </row>
@@ -1933,13 +1960,16 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B38" t="s">
         <v>80</v>
       </c>
       <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>1</v>
       </c>
     </row>

--- a/PowerWashSimulator/data.xlsx
+++ b/PowerWashSimulator/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\HadesGame-Checklist\PowerWashSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20646B01-5F54-47E2-86D0-1E71A166C71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7ECBA8-76B7-49BD-98AC-C3B6A3C532C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="390" windowWidth="18675" windowHeight="13275" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
@@ -998,7 +998,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,13 +1786,16 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
       </c>
       <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
